--- a/毕业设计相关/毕业论文/通信模块过程图.xlsx
+++ b/毕业设计相关/毕业论文/通信模块过程图.xlsx
@@ -1698,6 +1698,1191 @@
           <a:ext cx="361950" cy="1033463"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C8438B-0484-43D6-B2F3-E41A9D2A09E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="2057400"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E96FD3-5668-44A3-9AA7-9BBF9137FDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="2143125"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580F7ECA-2E22-4E87-9877-B5F2A2C6764A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="3409950"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文本框 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0379C176-A2B6-40F1-AA0E-6780794EC1FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="3495675"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="流程图: 决策 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18AA651-35B9-4ADE-A265-8E71A129004D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="1676400"/>
+          <a:ext cx="1914524" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>是否阅后即焚</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB651A3-762B-46DF-B9CD-BC39F9F86420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="2219325"/>
+          <a:ext cx="1333500" cy="466724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>保存到消息集合中，等待用户点击后显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5815594F-08A1-48EA-8FD7-46A9932D0519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2686049"/>
+          <a:ext cx="4762" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="连接符: 肘形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418AFCAC-169E-4F57-B9DF-DFF4E21B513A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7174706" y="2321718"/>
+          <a:ext cx="361950" cy="1033463"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文本框 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8C6520-C4BF-4EDD-A3F5-A360C3C4C962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829549" y="1943099"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形: 圆角 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF82C082-3DFF-4468-A7DF-9D772675EE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="2886075"/>
+          <a:ext cx="466725" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B620629-E01E-4CF0-9096-4D1882F2FED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="2228850"/>
+          <a:ext cx="866775" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>显示到消息显示区域</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="连接符: 肘形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E83804-B247-4CF4-A83F-CB7024993D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553324" y="1871662"/>
+          <a:ext cx="319089" cy="357188"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文本框 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25720788-406A-4B77-B7C6-5FD31141559C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="2038350"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6637C62F-7550-4CBC-824E-A66D1A96938C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6596062" y="2066924"/>
+          <a:ext cx="4763" cy="152401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形: 圆角 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23B5325-3A09-45A6-B241-3D0A66CD5E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="942975"/>
+          <a:ext cx="466725" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>开始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297A6537-CE8F-4E96-B1B5-21537A668E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6586538" y="1209675"/>
+          <a:ext cx="4762" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBCA36A-C1F8-4095-8D75-F3D1D7649A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1362075"/>
+          <a:ext cx="990600" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>收到聊天消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A8CDE8-79A6-4E90-9430-39978E64699A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1543050"/>
+          <a:ext cx="4762" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -2014,7 +3199,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
